--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.6017017642304</v>
+        <v>49.400308</v>
       </c>
       <c r="H2">
-        <v>48.6017017642304</v>
+        <v>148.200924</v>
       </c>
       <c r="I2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="J2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>151.914445894466</v>
+        <v>361.7055642209013</v>
       </c>
       <c r="R2">
-        <v>151.914445894466</v>
+        <v>3255.350077988111</v>
       </c>
       <c r="S2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
       <c r="T2">
-        <v>0.3064544711393237</v>
+        <v>0.3028101582105581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.4070516996933</v>
+        <v>69.564149</v>
       </c>
       <c r="H3">
-        <v>69.4070516996933</v>
+        <v>208.692447</v>
       </c>
       <c r="I3">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034781</v>
       </c>
       <c r="J3">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>216.9457738594562</v>
+        <v>509.3437831114707</v>
       </c>
       <c r="R3">
-        <v>216.9457738594562</v>
+        <v>4584.094048003236</v>
       </c>
       <c r="S3">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034781</v>
       </c>
       <c r="T3">
-        <v>0.4376410814821192</v>
+        <v>0.4264088994034782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.5847941633666</v>
+        <v>44.17507666666666</v>
       </c>
       <c r="H4">
-        <v>40.5847941633666</v>
+        <v>132.52523</v>
       </c>
       <c r="I4">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="J4">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>126.8559802078038</v>
+        <v>323.4467896479155</v>
       </c>
       <c r="R4">
-        <v>126.8559802078038</v>
+        <v>2911.02110683124</v>
       </c>
       <c r="S4">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
       <c r="T4">
-        <v>0.2559044473785571</v>
+        <v>0.2707809423859638</v>
       </c>
     </row>
   </sheetData>
